--- a/학습계획표/방학 학습계획표.xlsx
+++ b/학습계획표/방학 학습계획표.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YWS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YWS\Desktop\스터디\Study\학습계획표\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="파이썬-교재" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,9 +399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -449,6 +446,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,7 +745,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -742,170 +754,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>43115</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="20">
+        <v>43105</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -928,125 +942,125 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>43115</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>

--- a/학습계획표/방학 학습계획표.xlsx
+++ b/학습계획표/방학 학습계획표.xlsx
@@ -112,21 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02-3
-02-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-5
-02-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02-7
-02-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,6 +187,21 @@
     <t>01
 02</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-3
+02-4
+02-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02-6
+02-7
+02-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02(연습문제)</t>
   </si>
 </sst>
 </file>
@@ -772,19 +772,19 @@
     </row>
     <row r="2" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -792,9 +792,11 @@
         <v>43115</v>
       </c>
       <c r="B3" s="20">
-        <v>43105</v>
-      </c>
-      <c r="C3" s="20"/>
+        <v>43115</v>
+      </c>
+      <c r="C3" s="20">
+        <v>43118</v>
+      </c>
       <c r="D3" s="20"/>
       <c r="E3" s="21"/>
     </row>
@@ -817,19 +819,19 @@
     </row>
     <row r="5" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="E5" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -858,19 +860,19 @@
     </row>
     <row r="8" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="E8" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -899,19 +901,19 @@
     </row>
     <row r="11" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="E11" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -960,7 +962,7 @@
     </row>
     <row r="2" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>

--- a/학습계획표/방학 학습계획표.xlsx
+++ b/학습계획표/방학 학습계획표.xlsx
@@ -116,10 +116,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>02(연습문제)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>03-1
 03-2
 03-3</t>
@@ -184,11 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01
-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02-3
 02-4
 02-5</t>
@@ -202,6 +193,15 @@
   </si>
   <si>
     <t>02(연습문제)</t>
+  </si>
+  <si>
+    <t>입출력 받아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사칙연산도전하기
+for문 사용해보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -745,7 +745,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -778,13 +778,13 @@
         <v>20</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -797,8 +797,12 @@
       <c r="C3" s="20">
         <v>43118</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="20">
+        <v>43119</v>
+      </c>
+      <c r="E3" s="21">
+        <v>43119</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
@@ -818,16 +822,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -835,8 +839,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="13">
+        <v>43122</v>
+      </c>
+      <c r="B6" s="20">
+        <v>43123</v>
+      </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="21"/>
@@ -859,13 +867,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="17" t="s">
@@ -900,10 +908,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="17" t="s">
@@ -912,9 +920,7 @@
       <c r="D11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22"/>
@@ -935,7 +941,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -962,16 +968,18 @@
     </row>
     <row r="2" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="15"/>
+        <v>39</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
-        <v>43115</v>
+        <v>43122</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>

--- a/학습계획표/방학 학습계획표.xlsx
+++ b/학습계획표/방학 학습계획표.xlsx
@@ -199,8 +199,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사칙연산도전하기
-for문 사용해보기</t>
+    <r>
+      <t xml:space="preserve">사칙연산도전하기
+for문 사용해보기
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(설탕배달, 숫자의합 미완성)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +226,7 @@
     <numFmt numFmtId="176" formatCode="@\ &quot;일&quot;&quot;차&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;완료일: &quot;mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +239,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -386,25 +408,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -421,9 +428,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -745,7 +749,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -754,180 +758,182 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="7">
         <v>43115</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="14">
         <v>43115</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="14">
         <v>43118</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="14">
         <v>43119</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="15">
         <v>43119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="7">
         <v>43122</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="14">
         <v>43123</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
+      <c r="C6" s="14">
+        <v>43125</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="12" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -941,7 +947,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -950,134 +956,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="7">
         <v>43122</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="14">
+        <v>43122</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="18"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/학습계획표/방학 학습계획표.xlsx
+++ b/학습계획표/방학 학습계획표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="파이썬-교재" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(설탕배달, 숫자의합 미완성)</t>
+      <t>(설탕배달 미완성)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -748,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -852,7 +852,9 @@
       <c r="C6" s="14">
         <v>43125</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14">
+        <v>43130</v>
+      </c>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -946,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/학습계획표/방학 학습계획표.xlsx
+++ b/학습계획표/방학 학습계획표.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="파이썬-교재" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,11 @@
       </rPr>
       <t>(설탕배달 미완성)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의자료 14장
+-메모리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -948,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -981,7 +986,9 @@
       <c r="B2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
@@ -992,7 +999,9 @@
       <c r="B3" s="14">
         <v>43122</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="14">
+        <v>43143</v>
+      </c>
       <c r="D3" s="14"/>
       <c r="E3" s="15"/>
     </row>

--- a/학습계획표/방학 학습계획표.xlsx
+++ b/학습계획표/방학 학습계획표.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,16 @@
   <si>
     <t>강의자료 14장
 -메모리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의자료 17장
+-구조체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강의자료 18장
+-파일입출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +764,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -954,7 +964,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -989,8 +999,12 @@
       <c r="C2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
+      <c r="D2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
@@ -1002,8 +1016,12 @@
       <c r="C3" s="14">
         <v>43143</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="D3" s="14">
+        <v>43154</v>
+      </c>
+      <c r="E3" s="15">
+        <v>43157</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1091,12 +1109,12 @@
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
